--- a/01-GESTION DE PROJET/PMP/SUIVI DE PROJET/ETAT AVANCEMENT 27012016/CourbeS.xlsx
+++ b/01-GESTION DE PROJET/PMP/SUIVI DE PROJET/ETAT AVANCEMENT 27012016/CourbeS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyQCM_Documentation\01-GESTION DE PROJET\PMP\SUIVI DE PROJET\ETAT AVANCEMENT 27012016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Graph" sheetId="2" r:id="rId1"/>
+    <sheet name="Calcul" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>CBTP (VP)</t>
   </si>
@@ -168,6 +169,18 @@
   <si>
     <t>Cout réel du travail effectué</t>
   </si>
+  <si>
+    <t>Fevrier</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -314,7 +326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$4</c:f>
+              <c:f>Calcul!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$3:$H$3</c:f>
+              <c:f>Calcul!$B$3:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -364,7 +376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$4:$H$4</c:f>
+              <c:f>Calcul!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -403,7 +415,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$5</c:f>
+              <c:f>Calcul!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -424,7 +436,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$3:$H$3</c:f>
+              <c:f>Calcul!$B$3:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -453,7 +465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$5:$H$5</c:f>
+              <c:f>Calcul!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -492,7 +504,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$6</c:f>
+              <c:f>Calcul!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +525,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$3:$H$3</c:f>
+              <c:f>Calcul!$B$3:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -542,7 +554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$H$6</c:f>
+              <c:f>Calcul!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -581,7 +593,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$7</c:f>
+              <c:f>Calcul!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,7 +614,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$3:$H$3</c:f>
+              <c:f>Calcul!$B$3:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -631,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$7:$H$7</c:f>
+              <c:f>Calcul!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -662,6 +674,366 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1025-4A1D-92A5-5975336953E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calcul!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fevrier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calcul!$B$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CBTP (VP)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CBTE (VA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ECART DES COUTS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ECARTS DES DELAIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IPC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calcul!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96574690770694571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9472701819878675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9EB-438D-8DFA-452BA42E05E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calcul!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calcul!$B$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CBTP (VP)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CBTE (VA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ECART DES COUTS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ECARTS DES DELAIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IPC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calcul!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96951735817104145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87471352177234529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9EB-438D-8DFA-452BA42E05E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calcul!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calcul!$B$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CBTP (VP)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CBTE (VA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ECART DES COUTS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ECARTS DES DELAIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IPC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calcul!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97006237006237006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78711201079622128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9EB-438D-8DFA-452BA42E05E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calcul!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mai</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calcul!$B$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CBTP (VP)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CBTE (VA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ECART DES COUTS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ECARTS DES DELAIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IPC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calcul!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97252956886684472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77359635811836114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9EB-438D-8DFA-452BA42E05E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -795,7 +1167,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -902,7 +1273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,7 +1313,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
+              <c:f>Calcul!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -966,9 +1336,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$4:$A$7</c:f>
+              <c:f>Calcul!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -980,16 +1350,28 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fevrier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$4:$B$7</c:f>
+              <c:f>Calcul!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3024</c:v>
                 </c:pt>
@@ -1001,6 +1383,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1411,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$3</c:f>
+              <c:f>Calcul!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,9 +1434,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$4:$A$7</c:f>
+              <c:f>Calcul!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -1054,16 +1448,28 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fevrier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$4:$C$7</c:f>
+              <c:f>Calcul!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3024</c:v>
                 </c:pt>
@@ -1075,6 +1481,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1509,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$3</c:f>
+              <c:f>Calcul!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1114,9 +1532,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$4:$A$7</c:f>
+              <c:f>Calcul!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -1128,16 +1546,28 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fevrier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$4:$D$7</c:f>
+              <c:f>Calcul!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3024</c:v>
                 </c:pt>
@@ -1149,6 +1579,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23620</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1731,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2460,15 +2901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2497,10 +2938,10 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2600,6 +3041,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2635,6 +3093,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2789,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H29"/>
+  <dimension ref="A3:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2886,19 +3361,19 @@
         <v>6998</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E11" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F7" si="1">B5-C5</f>
+        <f t="shared" ref="F5:F11" si="1">B5-C5</f>
         <v>1872</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G7" si="2">C5/D5</f>
+        <f t="shared" ref="G5:G11" si="2">C5/D5</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H7" si="3">C5/B5</f>
+        <f t="shared" ref="H5:H11" si="3">C5/B5</f>
         <v>0.78895152198421648</v>
       </c>
     </row>
@@ -2962,34 +3437,130 @@
         <v>0.64876033057851235</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>21430</v>
+      </c>
+      <c r="C8">
+        <v>20300</v>
+      </c>
+      <c r="D8">
+        <v>21020</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.96574690770694571</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.9472701819878675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>26180</v>
+      </c>
+      <c r="C9">
+        <v>22900</v>
+      </c>
+      <c r="D9">
+        <v>23620</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3280</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.96951735817104145</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.87471352177234529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>29640</v>
+      </c>
+      <c r="C10">
+        <v>23330</v>
+      </c>
+      <c r="D10">
+        <v>24050</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6310</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.97006237006237006</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.78711201079622128</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>32950</v>
+      </c>
+      <c r="C11">
+        <v>25490</v>
+      </c>
+      <c r="D11">
+        <v>26210</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7460</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.97252956886684472</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.77359635811836114</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3092,35 +3663,73 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C10:H25"/>
+    <mergeCell ref="C13:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>